--- a/public/main-total.xlsx
+++ b/public/main-total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\EMEAREPORT\my-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B155E3-6744-4774-AA76-78E3D2C827FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE3476E-547C-4C29-894C-F6450A2ECE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0A60286-670E-40AE-8F59-128E7048F302}"/>
+    <workbookView xWindow="3936" yWindow="3456" windowWidth="17280" windowHeight="8880" xr2:uid="{C0A60286-670E-40AE-8F59-128E7048F302}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Country</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>5.22</t>
-  </si>
-  <si>
-    <t>India</t>
   </si>
   <si>
     <t>Ireland</t>
@@ -160,11 +157,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA83E4D-E6AE-4AE3-8C6F-46ED67B84E0B}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,10 +541,10 @@
       <c r="B2" s="1">
         <v>25</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>85650</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -572,10 +567,10 @@
       <c r="B3" s="1">
         <v>575</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1367489</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -596,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>918</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1803714</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="C4" s="1">
+        <v>317129</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -616,25 +611,26 @@
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
-        <v>72</v>
-      </c>
-      <c r="C5" s="3">
-        <v>317129</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
+        <v>283</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1258366</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -642,29 +638,28 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
-        <v>283</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1258366</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8</v>
+        <v>1716</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2014927</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
@@ -672,56 +667,30 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1716</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2014927</v>
-      </c>
-      <c r="D7" s="3">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>2671</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>5043561</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D2:D6)</f>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>3589</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C2:C7)</f>
-        <v>6847275</v>
-      </c>
-      <c r="D8">
-        <f>SUM(D2:D7)</f>
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/public/main-total.xlsx
+++ b/public/main-total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\EMEAREPORT\my-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE3476E-547C-4C29-894C-F6450A2ECE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466DB6ED-1132-43AC-8E9A-9238A4105124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="3456" windowWidth="17280" windowHeight="8880" xr2:uid="{C0A60286-670E-40AE-8F59-128E7048F302}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0A60286-670E-40AE-8F59-128E7048F302}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Country</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>1.20</t>
+  </si>
+  <si>
+    <t>HRD</t>
+  </si>
+  <si>
+    <t>Commentary Drive</t>
+  </si>
+  <si>
+    <t>PIFS</t>
+  </si>
+  <si>
+    <t>BTW</t>
   </si>
 </sst>
 </file>
@@ -498,7 +510,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,6 +545,18 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -559,6 +583,18 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <v>85</v>
+      </c>
+      <c r="L2">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -585,6 +621,18 @@
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>53</v>
+      </c>
+      <c r="L3">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -611,7 +659,18 @@
       <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -638,6 +697,18 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -664,6 +735,18 @@
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -692,6 +775,22 @@
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I2:I6)</f>
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:L7" si="0">SUM(J2:J6)</f>
+        <v>87</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
